--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-sexies</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-sexies</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -499,1640 +502,1640 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -236,7 +236,7 @@
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>{evento.separazione.presenzaAvvocatoConiuge1,=,false}</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
   </si>
   <si>
     <t>Foro di appartenenza</t>
@@ -254,7 +254,7 @@
     <t>evento.separazione.avvocatoConiuge2</t>
   </si>
   <si>
-    <t>{evento.separazione.presenzaAvvocatoConiuge2,=,false}</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -433,7 +433,7 @@
     <col min="4" max="4" width="37.23046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="51.6640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -98,6 +98,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>evento.separazione.presenzaConiuge2,=,true</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -224,40 +227,49 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>evento.separazione.presenzaConiuge2,=,false</t>
+  </si>
+  <si>
+    <t>Avvocato Marito</t>
+  </si>
+  <si>
+    <t>Foro di appartenenza</t>
+  </si>
+  <si>
+    <t>evento.separazione</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
+  </si>
+  <si>
+    <t>evento.separazione.avvocatoConiuge1</t>
+  </si>
+  <si>
     <t>Moglie</t>
   </si>
   <si>
     <t>evento.intestatari[1]</t>
   </si>
   <si>
-    <t>Avvocato Marito</t>
-  </si>
-  <si>
-    <t>evento.separazione.avvocatoConiuge1</t>
-  </si>
-  <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
-  </si>
-  <si>
-    <t>Foro di appartenenza</t>
-  </si>
-  <si>
-    <t>evento.separazione</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge1</t>
+    <t>evento.separazione.presenzaConiuge1,=,true</t>
   </si>
   <si>
     <t>Avvocato Moglie</t>
   </si>
   <si>
+    <t>foroAvvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
+  </si>
+  <si>
     <t>evento.separazione.avvocatoConiuge2</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge2</t>
+    <t>evento.separazione.presenzaConiuge1,=,false</t>
   </si>
   <si>
     <t>Accordo Separazione</t>
@@ -421,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -617,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -625,22 +637,22 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -648,7 +660,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -657,13 +669,13 @@
         <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +683,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -680,13 +692,13 @@
         <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -694,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -703,13 +715,13 @@
         <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -717,7 +729,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -726,13 +738,13 @@
         <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -740,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -749,13 +761,13 @@
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -763,7 +775,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -772,13 +784,13 @@
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -795,13 +807,13 @@
         <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -809,7 +821,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -818,13 +830,13 @@
         <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -832,7 +844,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -841,13 +853,13 @@
         <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -855,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -864,13 +876,13 @@
         <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +890,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -887,13 +899,13 @@
         <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -901,7 +913,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -910,13 +922,13 @@
         <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -924,7 +936,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
@@ -933,13 +945,13 @@
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -947,7 +959,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
@@ -956,13 +968,13 @@
         <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -970,7 +982,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -979,13 +991,13 @@
         <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -993,7 +1005,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -1002,13 +1014,13 @@
         <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -1016,7 +1028,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -1025,13 +1037,13 @@
         <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -1039,7 +1051,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -1048,13 +1060,13 @@
         <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1074,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1071,13 +1083,13 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -1085,7 +1097,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -1094,18 +1106,18 @@
         <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -1114,7 +1126,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>27</v>
@@ -1123,490 +1135,490 @@
         <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -1614,22 +1626,22 @@
         <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
@@ -1637,22 +1649,22 @@
         <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -1660,481 +1672,2505 @@
         <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -155,6 +155,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -326,22 +332,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -433,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -847,7 +853,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>26</v>
@@ -856,7 +862,7 @@
         <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>28</v>
@@ -939,7 +945,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
@@ -971,7 +977,7 @@
         <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>28</v>
@@ -994,7 +1000,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>28</v>
@@ -1017,7 +1023,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>28</v>
@@ -1054,7 +1060,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>26</v>
@@ -1063,7 +1069,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>28</v>
@@ -1120,22 +1126,22 @@
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -1143,22 +1149,22 @@
         <v>23</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
@@ -1166,7 +1172,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1175,13 +1181,13 @@
         <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -1189,7 +1195,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1198,13 +1204,13 @@
         <v>26</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -1212,7 +1218,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1221,13 +1227,13 @@
         <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
@@ -1235,7 +1241,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1244,13 +1250,13 @@
         <v>26</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
@@ -1258,22 +1264,22 @@
         <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -1281,7 +1287,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
@@ -1290,13 +1296,13 @@
         <v>26</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
@@ -1304,7 +1310,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
@@ -1313,13 +1319,13 @@
         <v>26</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -1327,7 +1333,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
@@ -1336,13 +1342,13 @@
         <v>26</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
@@ -1350,22 +1356,22 @@
         <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -1373,22 +1379,22 @@
         <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
@@ -1396,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1405,13 +1411,13 @@
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
@@ -1419,7 +1425,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1428,13 +1434,13 @@
         <v>26</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
@@ -1442,22 +1448,22 @@
         <v>23</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
@@ -1465,22 +1471,22 @@
         <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
@@ -1488,7 +1494,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
@@ -1497,13 +1503,13 @@
         <v>26</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
@@ -1511,7 +1517,7 @@
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
@@ -1520,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
@@ -1534,7 +1540,7 @@
         <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
@@ -1543,13 +1549,13 @@
         <v>26</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
@@ -1557,22 +1563,22 @@
         <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
@@ -1580,22 +1586,22 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51">
@@ -1603,7 +1609,7 @@
         <v>23</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -1612,1689 +1618,1689 @@
         <v>26</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>85</v>
@@ -3302,19 +3308,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3325,19 +3331,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3348,19 +3354,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3371,19 +3377,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3394,548 +3400,548 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -3946,19 +3952,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -3969,19 +3975,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -3992,19 +3998,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4015,22 +4021,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>16</v>
@@ -4038,22 +4044,22 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>16</v>
@@ -4061,19 +4067,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4084,19 +4090,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4107,19 +4113,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4130,22 +4136,22 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>16</v>
@@ -4153,24 +4159,162 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E162" s="2" t="s">
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -98,187 +98,187 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>evento.separazione.presenzaConiuge1,=,false</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaConiuge1,=,true</t>
+  </si>
+  <si>
+    <t>Avvocato Marito</t>
+  </si>
+  <si>
+    <t>Foro di appartenenza</t>
+  </si>
+  <si>
+    <t>evento.separazione</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
+  </si>
+  <si>
+    <t>evento.separazione.avvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>Moglie</t>
+  </si>
+  <si>
+    <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaConiuge2,=,false</t>
+  </si>
+  <si>
+    <t>Avvocato Moglie</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
+  </si>
+  <si>
+    <t>evento.separazione.avvocatoConiuge2</t>
+  </si>
+  <si>
     <t>evento.separazione.presenzaConiuge2,=,true</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Località estera</t>
-  </si>
-  <si>
-    <t>localitaEsteraNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>evento.separazione.presenzaConiuge2,=,false</t>
-  </si>
-  <si>
-    <t>Avvocato Marito</t>
-  </si>
-  <si>
-    <t>Foro di appartenenza</t>
-  </si>
-  <si>
-    <t>evento.separazione</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge1</t>
-  </si>
-  <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
-  </si>
-  <si>
-    <t>evento.separazione.avvocatoConiuge1</t>
-  </si>
-  <si>
-    <t>Moglie</t>
-  </si>
-  <si>
-    <t>evento.intestatari[1]</t>
-  </si>
-  <si>
-    <t>evento.separazione.presenzaConiuge1,=,true</t>
-  </si>
-  <si>
-    <t>Avvocato Moglie</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
-  </si>
-  <si>
-    <t>evento.separazione.avvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>evento.separazione.presenzaConiuge1,=,false</t>
-  </si>
-  <si>
-    <t>Accordo Separazione</t>
+    <t>Accordo divorzio collegato</t>
   </si>
   <si>
     <t>Id atto</t>
@@ -445,7 +445,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="37.23046875" customWidth="true" bestFit="true"/>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>evento.separazione.presenzaConiuge1,=,true</t>
@@ -439,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1149,7 +1173,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -1158,13 +1182,13 @@
         <v>26</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -1172,22 +1196,22 @@
         <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -1195,22 +1219,22 @@
         <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -1218,22 +1242,22 @@
         <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -1241,22 +1265,22 @@
         <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -1264,7 +1288,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1273,13 +1297,13 @@
         <v>26</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -1287,22 +1311,22 @@
         <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -1310,22 +1334,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
@@ -1333,22 +1357,22 @@
         <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
@@ -1356,22 +1380,22 @@
         <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -1379,7 +1403,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
@@ -1388,13 +1412,13 @@
         <v>26</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
@@ -1402,22 +1426,22 @@
         <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -1425,22 +1449,22 @@
         <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
@@ -1448,22 +1472,22 @@
         <v>23</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
@@ -1471,22 +1495,22 @@
         <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
@@ -1494,22 +1518,22 @@
         <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
@@ -1517,22 +1541,22 @@
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
@@ -1540,22 +1564,22 @@
         <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
@@ -1563,22 +1587,22 @@
         <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
@@ -1586,7 +1610,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
@@ -1595,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -1609,22 +1633,22 @@
         <v>23</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
@@ -1632,22 +1656,22 @@
         <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
@@ -1655,2276 +1679,2276 @@
         <v>23</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="152">
@@ -3932,22 +3956,22 @@
         <v>88</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="153">
@@ -3955,22 +3979,22 @@
         <v>88</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154">
@@ -3978,22 +4002,22 @@
         <v>88</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="155">
@@ -4001,22 +4025,22 @@
         <v>88</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="156">
@@ -4024,22 +4048,22 @@
         <v>88</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="157">
@@ -4047,22 +4071,22 @@
         <v>88</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158">
@@ -4070,22 +4094,22 @@
         <v>88</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159">
@@ -4093,22 +4117,22 @@
         <v>88</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="160">
@@ -4116,22 +4140,22 @@
         <v>88</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="161">
@@ -4139,22 +4163,22 @@
         <v>88</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162">
@@ -4162,22 +4186,22 @@
         <v>88</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="163">
@@ -4185,136 +4209,504 @@
         <v>88</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E168" s="2" t="s">
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -107,6 +107,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -161,13 +167,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -463,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -693,7 +699,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
@@ -785,7 +791,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
@@ -817,7 +823,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>28</v>
@@ -840,7 +846,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>28</v>
@@ -863,7 +869,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>28</v>
@@ -900,7 +906,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>26</v>
@@ -909,7 +915,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>28</v>
@@ -992,7 +998,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>26</v>
@@ -1024,7 +1030,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>28</v>
@@ -1047,7 +1053,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>28</v>
@@ -1070,7 +1076,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>28</v>
@@ -1107,7 +1113,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>26</v>
@@ -1116,7 +1122,7 @@
         <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>28</v>
@@ -1176,7 +1182,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>26</v>
@@ -1208,7 +1214,7 @@
         <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>28</v>
@@ -1231,7 +1237,7 @@
         <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>28</v>
@@ -1254,7 +1260,7 @@
         <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>28</v>
@@ -1265,7 +1271,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
@@ -1274,13 +1280,13 @@
         <v>26</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -1288,22 +1294,22 @@
         <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -1311,7 +1317,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1320,13 +1326,13 @@
         <v>26</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
@@ -1334,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -1357,7 +1363,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1366,13 +1372,13 @@
         <v>26</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -1380,7 +1386,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1389,13 +1395,13 @@
         <v>26</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
@@ -1403,22 +1409,22 @@
         <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
@@ -1426,22 +1432,22 @@
         <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
@@ -1449,7 +1455,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
@@ -1458,13 +1464,13 @@
         <v>26</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
@@ -1472,7 +1478,7 @@
         <v>23</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
@@ -1481,13 +1487,13 @@
         <v>26</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
@@ -1495,7 +1501,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
@@ -1504,13 +1510,13 @@
         <v>26</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
@@ -1518,22 +1524,22 @@
         <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
@@ -1541,22 +1547,22 @@
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
@@ -1564,7 +1570,7 @@
         <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1573,13 +1579,13 @@
         <v>26</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
@@ -1587,7 +1593,7 @@
         <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -1596,13 +1602,13 @@
         <v>26</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
@@ -1610,22 +1616,22 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
@@ -1633,22 +1639,22 @@
         <v>23</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
@@ -1656,7 +1662,7 @@
         <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
@@ -1665,13 +1671,13 @@
         <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
@@ -1679,7 +1685,7 @@
         <v>23</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
@@ -1688,13 +1694,13 @@
         <v>26</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
@@ -1702,7 +1708,7 @@
         <v>23</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
@@ -1711,13 +1717,13 @@
         <v>26</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
@@ -1725,22 +1731,22 @@
         <v>23</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
@@ -1748,22 +1754,22 @@
         <v>23</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
@@ -1771,7 +1777,7 @@
         <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -1780,13 +1786,13 @@
         <v>26</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
@@ -1794,22 +1800,22 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
@@ -1817,22 +1823,22 @@
         <v>23</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
@@ -1840,7 +1846,7 @@
         <v>23</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
@@ -1849,13 +1855,13 @@
         <v>26</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
@@ -1863,7 +1869,7 @@
         <v>23</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
@@ -1872,1850 +1878,1850 @@
         <v>26</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>95</v>
@@ -3723,19 +3729,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3746,19 +3752,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3769,19 +3775,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3792,19 +3798,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3815,663 +3821,663 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4482,19 +4488,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4505,19 +4511,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4528,22 +4534,22 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>16</v>
@@ -4551,22 +4557,22 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>16</v>
@@ -4574,19 +4580,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4597,19 +4603,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4620,19 +4626,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4643,19 +4649,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4666,22 +4672,22 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>16</v>
@@ -4689,24 +4695,162 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E184" s="2" t="s">
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -469,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1964,7 +1964,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>89</v>
@@ -1973,7 +1973,7 @@
         <v>27</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>88</v>
@@ -1987,7 +1987,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>89</v>
@@ -1996,7 +1996,7 @@
         <v>30</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>88</v>
@@ -2510,30 +2510,30 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>29</v>
@@ -2542,7 +2542,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>30</v>
@@ -2551,7 +2551,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91">
@@ -2559,7 +2559,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
@@ -2568,10 +2568,10 @@
         <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>92</v>
@@ -2582,7 +2582,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2591,7 +2591,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2605,16 +2605,16 @@
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2628,7 +2628,7 @@
         <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2637,7 +2637,7 @@
         <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2651,7 +2651,7 @@
         <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2660,7 +2660,7 @@
         <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2674,16 +2674,16 @@
         <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2697,19 @@
         <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>92</v>
@@ -2720,7 +2720,7 @@
         <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
@@ -2729,7 +2729,7 @@
         <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2743,7 +2743,7 @@
         <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
@@ -2752,7 +2752,7 @@
         <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>8</v>
@@ -2766,7 +2766,7 @@
         <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
@@ -2775,10 +2775,10 @@
         <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>92</v>
@@ -2789,19 +2789,19 @@
         <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>92</v>
@@ -2812,19 +2812,19 @@
         <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>92</v>
@@ -2835,7 +2835,7 @@
         <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2844,7 +2844,7 @@
         <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,7 +2858,7 @@
         <v>90</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2867,7 +2867,7 @@
         <v>91</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2881,16 +2881,16 @@
         <v>90</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2904,19 @@
         <v>90</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>92</v>
@@ -2927,7 +2927,7 @@
         <v>90</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
@@ -2936,7 +2936,7 @@
         <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2950,7 +2950,7 @@
         <v>90</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
@@ -2959,7 +2959,7 @@
         <v>91</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>8</v>
@@ -2973,7 +2973,7 @@
         <v>90</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
@@ -2982,10 +2982,10 @@
         <v>91</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>92</v>
@@ -2996,19 +2996,19 @@
         <v>90</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>92</v>
@@ -3019,19 +3019,19 @@
         <v>90</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>92</v>
@@ -3042,7 +3042,7 @@
         <v>90</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3051,7 +3051,7 @@
         <v>91</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3065,16 +3065,16 @@
         <v>90</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3088,19 @@
         <v>90</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>92</v>
@@ -3111,7 +3111,7 @@
         <v>90</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
@@ -3120,7 +3120,7 @@
         <v>91</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3134,7 +3134,7 @@
         <v>90</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
@@ -3143,7 +3143,7 @@
         <v>91</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>8</v>
@@ -3154,48 +3154,48 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119">
@@ -3203,19 +3203,19 @@
         <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>95</v>
@@ -3226,16 +3226,16 @@
         <v>93</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3249,19 @@
         <v>93</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>95</v>
@@ -3272,7 +3272,7 @@
         <v>93</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
@@ -3281,10 +3281,10 @@
         <v>96</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>95</v>
@@ -3295,7 +3295,7 @@
         <v>93</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
@@ -3304,10 +3304,10 @@
         <v>96</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>95</v>
@@ -3318,7 +3318,7 @@
         <v>93</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
@@ -3327,7 +3327,7 @@
         <v>96</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>8</v>
@@ -3341,7 +3341,7 @@
         <v>93</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
@@ -3350,7 +3350,7 @@
         <v>96</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3364,7 +3364,7 @@
         <v>93</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
@@ -3373,7 +3373,7 @@
         <v>96</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>8</v>
@@ -3387,7 +3387,7 @@
         <v>93</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
@@ -3396,7 +3396,7 @@
         <v>96</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3410,7 +3410,7 @@
         <v>93</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
@@ -3419,7 +3419,7 @@
         <v>96</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>8</v>
@@ -3433,7 +3433,7 @@
         <v>93</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
@@ -3442,10 +3442,10 @@
         <v>96</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>95</v>
@@ -3456,7 +3456,7 @@
         <v>93</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
@@ -3465,10 +3465,10 @@
         <v>96</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>95</v>
@@ -3479,7 +3479,7 @@
         <v>93</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
@@ -3488,7 +3488,7 @@
         <v>96</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>8</v>
@@ -3502,7 +3502,7 @@
         <v>93</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
@@ -3511,7 +3511,7 @@
         <v>96</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3525,7 +3525,7 @@
         <v>93</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
@@ -3534,7 +3534,7 @@
         <v>96</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>8</v>
@@ -3548,7 +3548,7 @@
         <v>93</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
@@ -3557,7 +3557,7 @@
         <v>96</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3571,7 +3571,7 @@
         <v>93</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
@@ -3580,7 +3580,7 @@
         <v>96</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>8</v>
@@ -3594,7 +3594,7 @@
         <v>93</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>25</v>
@@ -3603,7 +3603,7 @@
         <v>96</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3617,7 +3617,7 @@
         <v>93</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
@@ -3626,7 +3626,7 @@
         <v>96</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>8</v>
@@ -3640,7 +3640,7 @@
         <v>93</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
@@ -3649,10 +3649,10 @@
         <v>96</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>95</v>
@@ -3663,19 +3663,19 @@
         <v>93</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>95</v>
@@ -3686,19 +3686,19 @@
         <v>93</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>95</v>
@@ -3709,7 +3709,7 @@
         <v>93</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3718,7 +3718,7 @@
         <v>96</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3729,94 +3729,94 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="146">
@@ -3824,19 +3824,19 @@
         <v>90</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>97</v>
@@ -3847,7 +3847,7 @@
         <v>90</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -3856,7 +3856,7 @@
         <v>91</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3870,16 +3870,16 @@
         <v>90</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3893,16 +3893,16 @@
         <v>90</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3916,19 +3916,19 @@
         <v>90</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>97</v>
@@ -3939,16 +3939,16 @@
         <v>90</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -3962,19 +3962,19 @@
         <v>90</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>97</v>
@@ -3985,7 +3985,7 @@
         <v>90</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
@@ -3994,10 +3994,10 @@
         <v>91</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>97</v>
@@ -4008,19 +4008,19 @@
         <v>90</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>97</v>
@@ -4031,16 +4031,16 @@
         <v>90</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4054,19 +4054,19 @@
         <v>90</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>97</v>
@@ -4077,19 +4077,19 @@
         <v>90</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>97</v>
@@ -4100,16 +4100,16 @@
         <v>90</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4123,19 +4123,19 @@
         <v>90</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>97</v>
@@ -4146,16 +4146,16 @@
         <v>90</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4169,19 +4169,19 @@
         <v>90</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>97</v>
@@ -4192,7 +4192,7 @@
         <v>90</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>25</v>
@@ -4201,10 +4201,10 @@
         <v>91</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>97</v>
@@ -4215,19 +4215,19 @@
         <v>90</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>97</v>
@@ -4238,16 +4238,16 @@
         <v>90</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4261,19 +4261,19 @@
         <v>90</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>97</v>
@@ -4284,7 +4284,7 @@
         <v>90</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
@@ -4293,10 +4293,10 @@
         <v>91</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>97</v>
@@ -4307,19 +4307,19 @@
         <v>90</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>97</v>
@@ -4330,16 +4330,16 @@
         <v>90</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4353,19 +4353,19 @@
         <v>90</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>97</v>
@@ -4373,94 +4373,94 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
@@ -4468,16 +4468,16 @@
         <v>98</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4491,7 +4491,7 @@
         <v>98</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -4500,7 +4500,7 @@
         <v>100</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4514,7 +4514,7 @@
         <v>98</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4523,7 +4523,7 @@
         <v>100</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4537,7 +4537,7 @@
         <v>98</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -4546,7 +4546,7 @@
         <v>100</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4560,7 +4560,7 @@
         <v>98</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4569,7 +4569,7 @@
         <v>100</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4583,19 +4583,19 @@
         <v>98</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>16</v>
@@ -4606,19 +4606,19 @@
         <v>98</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>16</v>
@@ -4629,7 +4629,7 @@
         <v>98</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4638,7 +4638,7 @@
         <v>100</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4649,19 +4649,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4672,22 +4672,22 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>16</v>
@@ -4695,22 +4695,22 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>16</v>
@@ -4718,19 +4718,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4744,7 +4744,7 @@
         <v>122</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4753,104 +4753,12 @@
         <v>86</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -469,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -975,7 +981,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
@@ -984,7 +990,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
@@ -998,7 +1004,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>26</v>
@@ -1030,7 +1036,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>28</v>
@@ -1053,7 +1059,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>28</v>
@@ -1076,7 +1082,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>28</v>
@@ -1099,7 +1105,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>28</v>
@@ -1136,7 +1142,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>26</v>
@@ -1145,7 +1151,7 @@
         <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>28</v>
@@ -1205,7 +1211,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>26</v>
@@ -1237,7 +1243,7 @@
         <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>28</v>
@@ -1260,7 +1266,7 @@
         <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>28</v>
@@ -1283,7 +1289,7 @@
         <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>28</v>
@@ -1294,7 +1300,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>25</v>
@@ -1303,13 +1309,13 @@
         <v>26</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
@@ -1317,22 +1323,22 @@
         <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -1340,22 +1346,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -1363,22 +1369,22 @@
         <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -1386,7 +1392,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1395,13 +1401,13 @@
         <v>26</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -1409,7 +1415,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1418,13 +1424,13 @@
         <v>26</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -1432,7 +1438,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1441,13 +1447,13 @@
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -1455,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
@@ -1478,7 +1484,7 @@
         <v>23</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
@@ -1487,13 +1493,13 @@
         <v>26</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
@@ -1501,7 +1507,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
@@ -1510,13 +1516,13 @@
         <v>26</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
@@ -1524,7 +1530,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
@@ -1533,13 +1539,13 @@
         <v>26</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
@@ -1547,7 +1553,7 @@
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
@@ -1556,13 +1562,13 @@
         <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
@@ -1570,22 +1576,22 @@
         <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
@@ -1593,7 +1599,7 @@
         <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -1602,13 +1608,13 @@
         <v>26</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
@@ -1616,7 +1622,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -1625,13 +1631,13 @@
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
@@ -1639,22 +1645,22 @@
         <v>23</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
@@ -1662,7 +1668,7 @@
         <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
@@ -1671,13 +1677,13 @@
         <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
@@ -1685,7 +1691,7 @@
         <v>23</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
@@ -1694,13 +1700,13 @@
         <v>26</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
@@ -1708,7 +1714,7 @@
         <v>23</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
@@ -1717,13 +1723,13 @@
         <v>26</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
@@ -1731,7 +1737,7 @@
         <v>23</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
@@ -1740,13 +1746,13 @@
         <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
@@ -1754,7 +1760,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
@@ -1763,13 +1769,13 @@
         <v>26</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
@@ -1777,22 +1783,22 @@
         <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
@@ -1800,22 +1806,22 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
@@ -1823,7 +1829,7 @@
         <v>23</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -1832,13 +1838,13 @@
         <v>26</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60">
@@ -1846,22 +1852,22 @@
         <v>23</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61">
@@ -1869,22 +1875,22 @@
         <v>23</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
@@ -1892,7 +1898,7 @@
         <v>23</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
@@ -1901,13 +1907,13 @@
         <v>26</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -1915,7 +1921,7 @@
         <v>23</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
@@ -1924,619 +1930,619 @@
         <v>26</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -2545,1203 +2551,1203 @@
         <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>8</v>
@@ -3752,22 +3758,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>97</v>
@@ -3775,19 +3781,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3798,19 +3804,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3821,19 +3827,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3844,686 +3850,686 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4534,19 +4540,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4557,19 +4563,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4580,22 +4586,22 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>16</v>
@@ -4603,22 +4609,22 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>16</v>
@@ -4626,19 +4632,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4649,19 +4655,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4672,19 +4678,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4695,19 +4701,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4718,22 +4724,22 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>16</v>
@@ -4741,24 +4747,162 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E186" s="2" t="s">
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -475,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1013,7 +1019,7 @@
         <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>28</v>
@@ -1036,7 +1042,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>28</v>
@@ -1059,7 +1065,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>28</v>
@@ -1082,7 +1088,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>28</v>
@@ -1105,7 +1111,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>28</v>
@@ -1128,7 +1134,7 @@
         <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>28</v>
@@ -1165,7 +1171,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>26</v>
@@ -1174,7 +1180,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>28</v>
@@ -1234,7 +1240,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>26</v>
@@ -1266,7 +1272,7 @@
         <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>28</v>
@@ -1289,7 +1295,7 @@
         <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>28</v>
@@ -1312,7 +1318,7 @@
         <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>28</v>
@@ -1323,7 +1329,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
@@ -1332,13 +1338,13 @@
         <v>26</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -1346,22 +1352,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
@@ -1369,22 +1375,22 @@
         <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
@@ -1392,22 +1398,22 @@
         <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
@@ -1415,7 +1421,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1424,13 +1430,13 @@
         <v>26</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
@@ -1438,7 +1444,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1447,13 +1453,13 @@
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
@@ -1461,7 +1467,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1470,13 +1476,13 @@
         <v>26</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
@@ -1484,22 +1490,22 @@
         <v>23</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
@@ -1507,7 +1513,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
@@ -1516,13 +1522,13 @@
         <v>26</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
@@ -1530,7 +1536,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
@@ -1539,13 +1545,13 @@
         <v>26</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
@@ -1553,7 +1559,7 @@
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
@@ -1562,13 +1568,13 @@
         <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48">
@@ -1576,7 +1582,7 @@
         <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
@@ -1585,13 +1591,13 @@
         <v>26</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49">
@@ -1599,22 +1605,22 @@
         <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50">
@@ -1622,7 +1628,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -1631,13 +1637,13 @@
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
@@ -1645,22 +1651,22 @@
         <v>23</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
@@ -1668,7 +1674,7 @@
         <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
@@ -1677,13 +1683,13 @@
         <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53">
@@ -1691,7 +1697,7 @@
         <v>23</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
@@ -1700,13 +1706,13 @@
         <v>26</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54">
@@ -1714,7 +1720,7 @@
         <v>23</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
@@ -1723,13 +1729,13 @@
         <v>26</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55">
@@ -1737,7 +1743,7 @@
         <v>23</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
@@ -1746,13 +1752,13 @@
         <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
@@ -1760,7 +1766,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
@@ -1769,13 +1775,13 @@
         <v>26</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57">
@@ -1783,7 +1789,7 @@
         <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
@@ -1792,13 +1798,13 @@
         <v>26</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
@@ -1806,7 +1812,7 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
@@ -1815,13 +1821,13 @@
         <v>26</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59">
@@ -1829,22 +1835,22 @@
         <v>23</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60">
@@ -1852,22 +1858,22 @@
         <v>23</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61">
@@ -1875,7 +1881,7 @@
         <v>23</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -1884,13 +1890,13 @@
         <v>26</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62">
@@ -1898,22 +1904,22 @@
         <v>23</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63">
@@ -1921,22 +1927,22 @@
         <v>23</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64">
@@ -1944,7 +1950,7 @@
         <v>23</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
@@ -1953,13 +1959,13 @@
         <v>26</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65">
@@ -1967,7 +1973,7 @@
         <v>23</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
@@ -1976,642 +1982,642 @@
         <v>26</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2620,1249 +2626,1249 @@
         <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>8</v>
@@ -3873,22 +3879,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>99</v>
@@ -3896,19 +3902,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3919,19 +3925,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3942,19 +3948,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -3965,709 +3971,709 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4678,19 +4684,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4701,19 +4707,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4724,22 +4730,22 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>16</v>
@@ -4747,22 +4753,22 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>16</v>
@@ -4770,19 +4776,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -4793,19 +4799,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -4816,19 +4822,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -4839,19 +4845,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -4862,22 +4868,22 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>16</v>
@@ -4885,24 +4891,162 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E192" s="2" t="s">
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -481,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4920,7 +4926,7 @@
         <v>124</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>104</v>
@@ -4929,7 +4935,7 @@
         <v>125</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>16</v>
@@ -4937,19 +4943,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -4960,7 +4966,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>129</v>
@@ -4983,7 +4989,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>131</v>
@@ -5006,7 +5012,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>133</v>
@@ -5029,7 +5035,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>135</v>
@@ -5047,6 +5053,29 @@
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -487,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -763,7 +775,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>
@@ -786,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>26</v>
@@ -795,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>28</v>
@@ -832,7 +844,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
@@ -855,7 +867,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>26</v>
@@ -864,7 +876,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>28</v>
@@ -933,7 +945,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>28</v>
@@ -947,7 +959,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>26</v>
@@ -956,7 +968,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>28</v>
@@ -970,7 +982,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>26</v>
@@ -979,7 +991,7 @@
         <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>28</v>
@@ -993,7 +1005,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
@@ -1002,7 +1014,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
@@ -1016,7 +1028,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>26</v>
@@ -1025,7 +1037,7 @@
         <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>28</v>
@@ -1048,7 +1060,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>28</v>
@@ -1186,7 +1198,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>28</v>
@@ -1200,7 +1212,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>26</v>
@@ -1209,7 +1221,7 @@
         <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>28</v>
@@ -1223,7 +1235,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>26</v>
@@ -1232,7 +1244,7 @@
         <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>28</v>
@@ -1269,7 +1281,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>26</v>
@@ -1292,7 +1304,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>26</v>
@@ -1301,7 +1313,7 @@
         <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>28</v>
@@ -1358,7 +1370,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
@@ -1367,13 +1379,13 @@
         <v>26</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
@@ -1381,22 +1393,22 @@
         <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
@@ -1404,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
@@ -1413,13 +1425,13 @@
         <v>26</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -1427,7 +1439,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1436,13 +1448,13 @@
         <v>26</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
@@ -1450,22 +1462,22 @@
         <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
@@ -1473,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1482,13 +1494,13 @@
         <v>26</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44">
@@ -1496,22 +1508,22 @@
         <v>23</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45">
@@ -1519,7 +1531,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
@@ -1528,13 +1540,13 @@
         <v>26</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
@@ -1542,22 +1554,22 @@
         <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
@@ -1565,22 +1577,22 @@
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48">
@@ -1588,22 +1600,22 @@
         <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49">
@@ -1611,7 +1623,7 @@
         <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
@@ -1620,13 +1632,13 @@
         <v>26</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
@@ -1634,22 +1646,22 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
@@ -1657,22 +1669,22 @@
         <v>23</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
@@ -1680,7 +1692,7 @@
         <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
@@ -1689,13 +1701,13 @@
         <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53">
@@ -1703,7 +1715,7 @@
         <v>23</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
@@ -1712,13 +1724,13 @@
         <v>26</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54">
@@ -1726,22 +1738,22 @@
         <v>23</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
@@ -1749,22 +1761,22 @@
         <v>23</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56">
@@ -1772,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
@@ -1781,13 +1793,13 @@
         <v>26</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
@@ -1795,7 +1807,7 @@
         <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
@@ -1804,13 +1816,13 @@
         <v>26</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
@@ -1818,7 +1830,7 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
@@ -1827,13 +1839,13 @@
         <v>26</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59">
@@ -1841,7 +1853,7 @@
         <v>23</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
@@ -1850,13 +1862,13 @@
         <v>26</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60">
@@ -1864,7 +1876,7 @@
         <v>23</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
@@ -1873,13 +1885,13 @@
         <v>26</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
@@ -1887,22 +1899,22 @@
         <v>23</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62">
@@ -1910,22 +1922,22 @@
         <v>23</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63">
@@ -1933,22 +1945,22 @@
         <v>23</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64">
@@ -1956,7 +1968,7 @@
         <v>23</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
@@ -1965,13 +1977,13 @@
         <v>26</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65">
@@ -1979,22 +1991,22 @@
         <v>23</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66">
@@ -2002,22 +2014,22 @@
         <v>23</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67">
@@ -2025,663 +2037,663 @@
         <v>23</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>96</v>
@@ -2689,22 +2701,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>96</v>
@@ -2712,22 +2724,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>96</v>
@@ -2735,19 +2747,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2770,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2781,19 +2793,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2804,2158 +2816,2158 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E182" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -4966,19 +4978,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -4989,19 +5001,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5012,19 +5024,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5035,19 +5047,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5058,24 +5070,300 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="C205" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E199" s="2" t="s">
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_008.xlsx
@@ -413,6 +413,18 @@
     <t>Dettagli evento</t>
   </si>
   <si>
+    <t>Presenza avvocato Marito</t>
+  </si>
+  <si>
+    <t>presenzaAvvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>Presenza avvocato Moglie</t>
+  </si>
+  <si>
+    <t>presenzaAvvocatoConiuge2</t>
+  </si>
+  <si>
     <t>Tipo accordo</t>
   </si>
   <si>
@@ -429,18 +441,6 @@
   </si>
   <si>
     <t>presenzaConiuge2</t>
-  </si>
-  <si>
-    <t>Presenza avvocato Marito</t>
-  </si>
-  <si>
-    <t>presenzaAvvocatoConiuge1</t>
-  </si>
-  <si>
-    <t>Presenza avvocato Moglie</t>
-  </si>
-  <si>
-    <t>presenzaAvvocatoConiuge2</t>
   </si>
 </sst>
 </file>
